--- a/learnings/900/900.xlsx
+++ b/learnings/900/900.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dump-code\cp-algorithms\learnings\900\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38672798-3526-4687-812A-866A58358770}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7AF412-C753-4422-86B8-36931307641F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>900 Rated Problems</t>
   </si>
@@ -64,6 +64,42 @@
   </si>
   <si>
     <t>Think of worst case moving from 1 to n</t>
+  </si>
+  <si>
+    <t>C. Game of mathletes</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/2060/C</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/submission/2060/329174301</t>
+  </si>
+  <si>
+    <t>count pairs of sum =k. do not iterate over a map and change the map it causes undefined behaviour</t>
+  </si>
+  <si>
+    <t>B. Replace character</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/2047/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/2047/submission/329242233</t>
+  </si>
+  <si>
+    <t>intuition is easy implementation is tough. Take the min freq first character in alphabet and max freq later character</t>
+  </si>
+  <si>
+    <t>B. Everyone loves Tres</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/2035/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/2035/submission/329684306</t>
+  </si>
+  <si>
+    <t>try to identy pattern for even and odd n. computer the 500 in form of dp</t>
   </si>
 </sst>
 </file>
@@ -158,7 +194,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,6 +209,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -206,34 +248,37 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -518,43 +563,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.77734375" defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="50.77734375" style="1"/>
+    <col min="1" max="16384" width="50.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:4" s="3" customFormat="1" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -569,22 +614,64 @@
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -595,8 +682,15 @@
     <hyperlink ref="B6" r:id="rId1" xr:uid="{A17F9CE6-3E25-47E3-B1F9-6D96C17CD180}"/>
     <hyperlink ref="C6" r:id="rId2" xr:uid="{C8C715E2-C4BB-475A-9C54-8B76DEF70B13}"/>
     <hyperlink ref="B7" r:id="rId3" xr:uid="{6495B344-79D6-4D5E-A455-DACD68E861E5}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{54B0FF6F-AC5E-42CB-96E5-69F0EBAB2C27}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{65060F5B-1CC7-4278-BBBA-11C91AA54073}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{1AB22178-6CD7-449E-9283-B85288EEF88A}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{CDDC15E5-682E-488A-853F-A2D52D07DB94}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{D44E2E28-2667-42EC-92CA-EC50A7FE6E88}"/>
+    <hyperlink ref="B9" r:id="rId9" xr:uid="{26945762-9C55-4D33-BE7B-3A84FEA25104}"/>
+    <hyperlink ref="C9" r:id="rId10" xr:uid="{5C1C5B72-BD00-493D-A4B8-FE99E1C29B16}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>